--- a/data_exploration/acl/tables/example_lengths_sentiment_mbert.xlsx
+++ b/data_exploration/acl/tables/example_lengths_sentiment_mbert.xlsx
@@ -465,19 +465,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4939</v>
+        <v>6444</v>
       </c>
       <c r="C2">
-        <v>4113</v>
+        <v>4292</v>
       </c>
       <c r="D2">
-        <v>4842</v>
+        <v>5733</v>
       </c>
       <c r="E2">
-        <v>4936</v>
+        <v>6155</v>
       </c>
       <c r="F2">
-        <v>4939</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -545,19 +545,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>462</v>
+        <v>5936</v>
       </c>
       <c r="C6">
-        <v>284</v>
+        <v>1171</v>
       </c>
       <c r="D6">
-        <v>462</v>
+        <v>3019</v>
       </c>
       <c r="E6">
-        <v>462</v>
+        <v>4916</v>
       </c>
       <c r="F6">
-        <v>462</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -645,19 +645,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11881</v>
+        <v>7926</v>
       </c>
       <c r="C11">
-        <v>11354</v>
+        <v>5338</v>
       </c>
       <c r="D11">
-        <v>11820</v>
+        <v>7916</v>
       </c>
       <c r="E11">
-        <v>11873</v>
+        <v>7926</v>
       </c>
       <c r="F11">
-        <v>11881</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -665,19 +665,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1355</v>
+        <v>4432</v>
       </c>
       <c r="C12">
-        <v>738</v>
+        <v>4224</v>
       </c>
       <c r="D12">
-        <v>1081</v>
+        <v>4395</v>
       </c>
       <c r="E12">
-        <v>1274</v>
+        <v>4417</v>
       </c>
       <c r="F12">
-        <v>1341</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -705,19 +705,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3237</v>
+        <v>36000</v>
       </c>
       <c r="C14">
-        <v>2635</v>
+        <v>33522</v>
       </c>
       <c r="D14">
-        <v>3215</v>
+        <v>35999</v>
       </c>
       <c r="E14">
-        <v>3237</v>
+        <v>36000</v>
       </c>
       <c r="F14">
-        <v>3237</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -745,19 +745,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>915</v>
+        <v>4486</v>
       </c>
       <c r="C16">
-        <v>900</v>
+        <v>3103</v>
       </c>
       <c r="D16">
-        <v>914</v>
+        <v>4150</v>
       </c>
       <c r="E16">
-        <v>915</v>
+        <v>4445</v>
       </c>
       <c r="F16">
-        <v>915</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -765,19 +765,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>33976</v>
+        <v>2468</v>
       </c>
       <c r="C17">
-        <v>15463</v>
+        <v>2397</v>
       </c>
       <c r="D17">
-        <v>23518</v>
+        <v>2445</v>
       </c>
       <c r="E17">
-        <v>29391</v>
+        <v>2460</v>
       </c>
       <c r="F17">
-        <v>32467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -825,19 +825,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="C20">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="D20">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="E20">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="F20">
-        <v>502</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
